--- a/biology/Zoologie/Darevskia_raddei/Darevskia_raddei.xlsx
+++ b/biology/Zoologie/Darevskia_raddei/Darevskia_raddei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia raddei est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia raddei est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le nord-ouest de l'Iran, en Azerbaïdjan, Arménie, en Géorgie et dans le nord-est de la Turquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le nord-ouest de l'Iran, en Azerbaïdjan, Arménie, en Géorgie et dans le nord-est de la Turquie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (24 janvier 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (24 janvier 2014) :
 Darevskia raddei chaldoranensis Rastegar-Pouyani, Karamiani, Oraei, Khosrawani &amp; Rastegar-Pouyani, 2011
 Darevskia raddei nairensis (Darevsky, 1967)
 Darevskia raddei raddei (Boettger, 1892)
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gustav Radde[3]. La sous-espèce Darevskia raddei chaldoranensis, composé de chaldoran et du suffixe latin -ensis, « qui vit dans, qui habite », est nommée en référence au lieu de sa découverte, la ville de Chaldoran[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gustav Radde. La sous-espèce Darevskia raddei chaldoranensis, composé de chaldoran et du suffixe latin -ensis, « qui vit dans, qui habite », est nommée en référence au lieu de sa découverte, la ville de Chaldoran.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boettger, 1892 : Kriechthiere der Kaukasusländer, gesammelt durch die Radde-Valentin’sche Expedition nach dem Karabagh und durch die Herren Dr. J. Valentin un P. Reibisch. Bericht über die Senckenbergische Naturforschende Gesellschaft in Frankfurt am Main, vol. 1892, p. 131-150.
 Darevsky, 1967 : Skal'nye yashcheritzi Kaukaza (Rock lizards of the Caucasus. Systematics, ecology and phylogeny of a polymorphic group of Caucasian lizards from the subgenera Archaeolacerta). Akademiya Nauk SSSR Zoologicheskii Institut, Nauka Leningrad, vol. 1967, p. 3-214.
